--- a/storage/options_order_sheet.xlsx
+++ b/storage/options_order_sheet.xlsx
@@ -56,11 +56,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -324,7 +325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -333,67 +334,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Trigger_Level_High_Low</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Entry_Type</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Entry_Strike</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Option_Type</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>Strike_Type</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Expiry</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Stop_Loss</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Qty</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>Slicing</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Time_Interval</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Activation_Type</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Activation</t>
         </is>
@@ -421,7 +422,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G2" t="n">
@@ -468,7 +469,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G3" t="n">
@@ -515,7 +516,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G4" t="n">
@@ -562,7 +563,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G5" t="inlineStr">
@@ -613,7 +614,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G6" t="inlineStr">
@@ -664,7 +665,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G7" t="n">
@@ -711,7 +712,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -762,7 +763,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -813,7 +814,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G10" t="n">
@@ -860,7 +861,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G11" t="n">
@@ -907,7 +908,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G12" t="n">
@@ -954,7 +955,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G13" t="n">
@@ -1001,7 +1002,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G14" t="n">
@@ -1048,7 +1049,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G15" t="n">
@@ -1095,7 +1096,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G16" t="n">
@@ -1142,7 +1143,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G17" t="n">
@@ -1189,7 +1190,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G18" t="n">
@@ -1236,7 +1237,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G19" t="n">
@@ -1283,7 +1284,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G20" t="n">
@@ -1330,7 +1331,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G21" t="n">
@@ -1377,7 +1378,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G22" t="n">
@@ -1424,7 +1425,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G23" t="n">
@@ -1471,7 +1472,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G24" t="n">
@@ -1518,7 +1519,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G25" t="n">
@@ -1565,7 +1566,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G26" t="n">
@@ -1612,7 +1613,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G27" t="n">
@@ -1659,7 +1660,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G28" t="n">
@@ -1706,7 +1707,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G29" t="n">
@@ -1753,7 +1754,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G30" t="n">
@@ -1800,7 +1801,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G31" t="n">
@@ -1847,7 +1848,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G32" t="n">
@@ -1894,7 +1895,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G33" t="n">
@@ -1941,7 +1942,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G34" t="n">
@@ -1988,7 +1989,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G35" t="n">
@@ -2035,7 +2036,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G36" t="n">
@@ -2082,7 +2083,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G37" t="n">
@@ -2129,7 +2130,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G38" t="n">
@@ -2176,7 +2177,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G39" t="n">
@@ -2223,7 +2224,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G40" t="n">
@@ -2270,7 +2271,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G41" t="n">
@@ -2317,7 +2318,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G42" t="n">
@@ -2364,7 +2365,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G43" t="n">
@@ -2411,7 +2412,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G44" t="n">
@@ -2458,7 +2459,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G45" t="n">
@@ -2505,7 +2506,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G46" t="n">
@@ -2552,7 +2553,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G47" t="n">
@@ -2599,7 +2600,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G48" t="n">
@@ -2646,7 +2647,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F49" s="5" t="n">
+      <c r="F49" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G49" t="n">
@@ -2693,7 +2694,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F50" s="5" t="n">
+      <c r="F50" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G50" t="n">
@@ -2740,7 +2741,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G51" t="n">
@@ -2787,7 +2788,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F52" s="5" t="n">
+      <c r="F52" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G52" t="n">
@@ -2834,7 +2835,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F53" s="5" t="n">
+      <c r="F53" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G53" t="inlineStr">
@@ -2885,7 +2886,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G54" t="inlineStr">
@@ -2936,7 +2937,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F55" s="5" t="n">
+      <c r="F55" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G55" t="n">
@@ -2983,7 +2984,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G56" t="n">
@@ -3030,7 +3031,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F57" s="5" t="n">
+      <c r="F57" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G57" t="n">
@@ -3077,7 +3078,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F58" s="5" t="n">
+      <c r="F58" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G58" t="n">
@@ -3124,7 +3125,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F59" s="5" t="n">
+      <c r="F59" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G59" t="n">
@@ -3171,7 +3172,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F60" s="5" t="n">
+      <c r="F60" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G60" t="n">
@@ -3218,7 +3219,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F61" s="5" t="n">
+      <c r="F61" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G61" t="n">
@@ -3265,7 +3266,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G62" t="n">
@@ -3312,7 +3313,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G63" t="n">
@@ -3359,7 +3360,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G64" t="n">
@@ -3406,7 +3407,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G65" t="n">
@@ -3453,7 +3454,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F66" s="5" t="n">
+      <c r="F66" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G66" t="n">
@@ -3500,7 +3501,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F67" s="5" t="n">
+      <c r="F67" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G67" t="n">
@@ -3547,7 +3548,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F68" s="5" t="n">
+      <c r="F68" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G68" t="n">
@@ -3594,7 +3595,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F69" s="5" t="n">
+      <c r="F69" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G69" t="n">
@@ -3641,7 +3642,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F70" s="5" t="n">
+      <c r="F70" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G70" t="n">
@@ -3688,7 +3689,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F71" s="5" t="n">
+      <c r="F71" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G71" t="n">
@@ -3735,7 +3736,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F72" s="5" t="n">
+      <c r="F72" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G72" t="n">
@@ -3782,7 +3783,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F73" s="5" t="n">
+      <c r="F73" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G73" t="n">
@@ -3829,7 +3830,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F74" s="5" t="n">
+      <c r="F74" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G74" t="n">
@@ -3876,7 +3877,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F75" s="5" t="n">
+      <c r="F75" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G75" t="n">
@@ -3923,7 +3924,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G76" t="n">
@@ -3970,7 +3971,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F77" s="5" t="n">
+      <c r="F77" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G77" t="n">
@@ -4017,7 +4018,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F78" s="5" t="n">
+      <c r="F78" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G78" t="n">
@@ -4064,7 +4065,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F79" s="5" t="n">
+      <c r="F79" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G79" t="n">
@@ -4099,7 +4100,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>36750</v>
+        <v>37600</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -4111,7 +4112,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F80" s="5" t="n">
+      <c r="F80" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G80" t="inlineStr">
@@ -4137,7 +4138,7 @@
         <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -4150,7 +4151,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>36450</v>
+        <v>37300</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -4162,7 +4163,7 @@
           <t>SELL</t>
         </is>
       </c>
-      <c r="F81" s="5" t="n">
+      <c r="F81" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G81" t="inlineStr">
@@ -4188,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -4213,7 +4214,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F82" s="5" t="n">
+      <c r="F82" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G82" t="n">
@@ -4260,7 +4261,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F83" s="5" t="n">
+      <c r="F83" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G83" t="n">
@@ -4307,7 +4308,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F84" s="5" t="n">
+      <c r="F84" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G84" t="n">
@@ -4354,7 +4355,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F85" s="5" t="n">
+      <c r="F85" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G85" t="n">
@@ -4401,7 +4402,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F86" s="5" t="n">
+      <c r="F86" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G86" t="n">
@@ -4448,7 +4449,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F87" s="5" t="n">
+      <c r="F87" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G87" t="n">
@@ -4495,7 +4496,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F88" s="5" t="n">
+      <c r="F88" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G88" t="n">
@@ -4542,7 +4543,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F89" s="5" t="n">
+      <c r="F89" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G89" t="n">
@@ -4589,7 +4590,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F90" s="5" t="n">
+      <c r="F90" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G90" t="n">
@@ -4636,7 +4637,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F91" s="5" t="n">
+      <c r="F91" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G91" t="n">
@@ -4683,7 +4684,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F92" s="5" t="n">
+      <c r="F92" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G92" t="n">
@@ -4730,7 +4731,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F93" s="5" t="n">
+      <c r="F93" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G93" t="n">
@@ -4777,7 +4778,7 @@
           <t>BUY</t>
         </is>
       </c>
-      <c r="F94" s="5" t="n">
+      <c r="F94" s="6" t="n">
         <v>45934.22969907407</v>
       </c>
       <c r="G94" t="n">
@@ -4799,7 +4800,195 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LIMIT</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="n">
+        <v>45934.22969907407</v>
+      </c>
+      <c r="G95" t="n">
+        <v>37700</v>
+      </c>
+      <c r="H95" t="n">
+        <v>37500</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>5</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LIMIT</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="n">
+        <v>45934.22969907407</v>
+      </c>
+      <c r="G96" t="n">
+        <v>37700</v>
+      </c>
+      <c r="H96" t="n">
+        <v>37500</v>
+      </c>
+      <c r="I96" t="n">
+        <v>4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="n">
+        <v>5</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LIMIT</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="n">
+        <v>45934.22969907407</v>
+      </c>
+      <c r="G97" t="n">
+        <v>37700</v>
+      </c>
+      <c r="H97" t="n">
+        <v>37500</v>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LIMIT</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>38000</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="n">
+        <v>45934.22969907407</v>
+      </c>
+      <c r="G98" t="n">
+        <v>37500</v>
+      </c>
+      <c r="H98" t="n">
+        <v>37250</v>
+      </c>
+      <c r="I98" t="n">
+        <v>4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>5</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
